--- a/data/tcData.xlsx
+++ b/data/tcData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="8100" windowWidth="20400" windowHeight="7940"/>
+    <workbookView xWindow="18000" yWindow="12220" windowWidth="20400" windowHeight="7940"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -40,15 +40,9 @@
     <t>请输入密码</t>
   </si>
   <si>
-    <t>请输入帐号</t>
-  </si>
-  <si>
     <t>linux</t>
   </si>
   <si>
-    <t>帐号或密码错误</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -59,16 +53,6 @@
   </si>
   <si>
     <t>linux2</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cheng'g</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>department</t>
@@ -100,6 +84,17 @@
   </si>
   <si>
     <t>电话: 该手机号已经存在，不能创建</t>
+  </si>
+  <si>
+    <t>用户名或者密码有误</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <rPh sb="3" eb="4">
+      <t>zhang'hao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -538,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -566,40 +561,29 @@
       <c r="A2" s="1">
         <v>10086</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
         <v>10086</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>10086</v>
-      </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1">
-        <v>10086</v>
+        <v>10087</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10087</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -626,13 +610,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -640,30 +624,30 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>13691579841</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>13691579841</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
